--- a/grizly/tests/tables.xlsx
+++ b/grizly/tests/tables.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3DFB5A-FAF4-4C8C-BCB9-823F281B4EF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7520FC-2024-424B-B277-34DED4D90FF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orders" sheetId="1" r:id="rId1"/>
+    <sheet name="cb_invoices" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>num</t>
   </si>
@@ -71,6 +72,24 @@
   </si>
   <si>
     <t>orders</t>
+  </si>
+  <si>
+    <t>InvoiceId</t>
+  </si>
+  <si>
+    <t>TrackId</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>invoice_items</t>
+  </si>
+  <si>
+    <t>InvoiceLineId</t>
   </si>
 </sst>
 </file>
@@ -399,19 +418,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="4" width="15.7265625" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -431,7 +450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -451,7 +470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -462,7 +481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -473,7 +492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -492,4 +511,85 @@
     <customPr name="EpmWorksheetKeyString_GUID" r:id="rId2"/>
   </customProperties>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC784604-C8E1-4D45-B8F3-1CCAE139178D}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="41.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId1"/>
+  </customProperties>
+</worksheet>
 </file>
--- a/grizly/tests/tables.xlsx
+++ b/grizly/tests/tables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7520FC-2024-424B-B277-34DED4D90FF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AC895E-DEA3-4434-A326-8A820E908117}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orders" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>num</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Part</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -90,6 +87,24 @@
   </si>
   <si>
     <t>InvoiceLineId</t>
+  </si>
+  <si>
+    <t>CustomerID_1</t>
+  </si>
+  <si>
+    <t>CustomerID_2</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>CustomerID</t>
+  </si>
+  <si>
+    <t>CASE WHEN CustomerID_1 &lt;&gt; NULL THEN CustomerID_1 ELSE CustomerID_2 END</t>
   </si>
 </sst>
 </file>
@@ -131,10 +146,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,93 +434,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="16.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -517,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC784604-C8E1-4D45-B8F3-1CCAE139178D}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -545,18 +591,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -564,7 +610,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -572,7 +618,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -580,7 +626,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>

--- a/grizly/tests/tables.xlsx
+++ b/grizly/tests/tables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AC895E-DEA3-4434-A326-8A820E908117}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AACF5A-A5E3-4DE0-BD1E-6F6BE3863923}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,18 +53,12 @@
     <t>column_as</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>Part</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
-    <t>Order Number</t>
-  </si>
-  <si>
     <t>orders_schema</t>
   </si>
   <si>
@@ -105,6 +99,12 @@
   </si>
   <si>
     <t>CASE WHEN CustomerID_1 &lt;&gt; NULL THEN CustomerID_1 ELSE CustomerID_2 END</t>
+  </si>
+  <si>
+    <t>Order_Number</t>
+  </si>
+  <si>
+    <t>Order_Nr</t>
   </si>
 </sst>
 </file>
@@ -146,12 +146,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -437,7 +440,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,35 +468,35 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -504,7 +507,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -516,7 +519,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -530,7 +533,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -544,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -591,18 +594,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -610,7 +613,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -618,7 +621,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -626,7 +629,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
